--- a/grad_banjaluka/obrazovanje/obrazovanje_odraslih/bl_obrazovanje_odraslih.xlsx
+++ b/grad_banjaluka/obrazovanje/obrazovanje_odraslih/bl_obrazovanje_odraslih.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoogleDrive\Learning\opendata\open-data\grad_banjaluka\obrazovanje\obrazovanje_odraslih\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E7CDC00-A8BE-4DE8-B403-E8950DE6AF68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16580403-4D02-4C03-8339-A83E600426D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{89213EC0-6E01-439C-8297-C5C92118C53D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>redni_broj</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>Pere Krece 13</t>
+  </si>
+  <si>
+    <t>https://sec.ba/</t>
+  </si>
+  <si>
+    <t>Socijalno-edukativni centar</t>
+  </si>
+  <si>
+    <t>Dr. Mladena Stojanovića 6</t>
+  </si>
+  <si>
+    <t>+387 51  321 601</t>
+  </si>
+  <si>
+    <t>+387 51 231 600</t>
+  </si>
+  <si>
+    <t>info@sec.ba</t>
   </si>
 </sst>
 </file>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7990A0B-35EA-418B-AA83-64FF22D102F4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +705,29 @@
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -704,6 +745,8 @@
     <hyperlink ref="G7" r:id="rId11" xr:uid="{BDE1D981-0637-4096-A65C-715756D2666A}"/>
     <hyperlink ref="F8" r:id="rId12" xr:uid="{C5AFC014-AACF-471A-ADBA-E69F535C6BC9}"/>
     <hyperlink ref="G8" r:id="rId13" xr:uid="{4BCB7ECE-5BED-4B72-A46B-92A2D5CABD6B}"/>
+    <hyperlink ref="F9" r:id="rId14" xr:uid="{475F28EF-4D72-4C5C-AF72-C06911A64A93}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{BD959B54-EB11-40D7-A890-CC1B46F6D780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
